--- a/Test/Test.xlsx
+++ b/Test/Test.xlsx
@@ -1,51 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyUtils\MyUtilsForEveryDays\Test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9777D53B-2876-4293-9BDB-0B3AC898C885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pippo" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>90'</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -64,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -344,52 +385,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1">
+      <c r="A1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>1000</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>989</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>9</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="4">
+      <c r="B4" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D6">
+    <row r="6">
+      <c r="D6" t="n">
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>0</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>90'</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Test/Test.xlsx
+++ b/Test/Test.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pippo" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pluto1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pluto" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -392,7 +393,7 @@
   </sheetPr>
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
@@ -442,4 +443,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test/Test.xlsx
+++ b/Test/Test.xlsx
@@ -3,11 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pluto1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pluto" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -17,13 +16,89 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="17">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="True"/>
+    </font>
+    <font>
+      <name val="0"/>
+    </font>
+    <font>
+      <name val="1"/>
+    </font>
+    <font>
+      <i val="1"/>
+    </font>
+    <font>
+      <strike val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <strike val="1"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <strike val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <strike val="1"/>
+      <color rgb="000000FF"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <strike val="1"/>
+      <color rgb="00FF0000"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <strike val="1"/>
+      <color rgb="00FFFF00"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <strike val="1"/>
+      <color rgb="0000FFFF"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <strike val="0"/>
+      <color rgb="00FFFF00"/>
+      <sz val="30"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <b val="1"/>
+      <strike val="0"/>
+      <color rgb="00FFFF00"/>
+      <sz val="30"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <strike val="0"/>
+      <color rgb="00FFFF00"/>
+      <sz val="30"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +121,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -400,7 +490,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
+      <c r="A1" s="15" t="n">
         <v>10</v>
       </c>
     </row>
@@ -410,7 +500,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="15" t="n">
         <v>1000</v>
       </c>
       <c r="G3" t="n">
@@ -429,7 +519,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="D6" t="n">
+      <c r="D6" s="15" t="n">
         <v>76</v>
       </c>
     </row>
@@ -443,22 +533,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Test/Test.xlsx
+++ b/Test/Test.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -95,6 +95,20 @@
     </font>
     <font>
       <name val="Arial"/>
+      <b val="1"/>
+      <strike val="0"/>
+      <color rgb="00FFFF00"/>
+      <sz val="30"/>
+    </font>
+    <font>
+      <name val="MS Comic"/>
+      <b val="1"/>
+      <strike val="0"/>
+      <color rgb="00FFFF00"/>
+      <sz val="30"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
       <b val="1"/>
       <strike val="0"/>
       <color rgb="00FFFF00"/>
@@ -121,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -138,6 +152,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -490,7 +506,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="n">
+      <c r="A1" s="17" t="n">
         <v>10</v>
       </c>
     </row>
@@ -500,7 +516,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="n">
+      <c r="A3" s="17" t="n">
         <v>1000</v>
       </c>
       <c r="G3" t="n">
@@ -519,7 +535,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="D6" s="15" t="n">
+      <c r="D6" s="17" t="n">
         <v>76</v>
       </c>
     </row>

--- a/Test/Test.xlsx
+++ b/Test/Test.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -112,6 +112,20 @@
       <b val="1"/>
       <strike val="0"/>
       <color rgb="00FFFF00"/>
+      <sz val="30"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
+      <b val="1"/>
+      <strike val="0"/>
+      <color rgb="00FF0000"/>
+      <sz val="30"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
+      <b val="1"/>
+      <strike val="0"/>
+      <color rgb="00000080"/>
       <sz val="30"/>
     </font>
   </fonts>
@@ -135,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -154,6 +168,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -506,7 +522,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="n">
+      <c r="A1" s="18" t="n">
         <v>10</v>
       </c>
     </row>
@@ -535,7 +551,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="D6" s="17" t="n">
+      <c r="D6" s="19" t="n">
         <v>76</v>
       </c>
     </row>
